--- a/Stocks/EXIDEIND.xlsx
+++ b/Stocks/EXIDEIND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>230.65</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>220.82060277767948</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>216.72058141565336</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>57.585221773585985</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.94999999999998863</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>5.9499999999999886</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.15966386554621689</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>221.10411180877344</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-1.6312241907543239</v>
       </c>
       <c r="Y67">
         <v>-2.0776435230117096</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>202.9</v>
+      </c>
+      <c r="D83">
+        <v>203.15</v>
+      </c>
+      <c r="E83">
+        <v>198.5</v>
+      </c>
+      <c r="F83">
+        <v>200.95</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>200.86666666666665</v>
+      </c>
+      <c r="H83">
+        <v>201.05984935408696</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>206.47244272804014</v>
+      </c>
+      <c r="K83">
+        <v>200.49180033085364</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>39.394996446340173</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>2.4499999999999886</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.52688172043010439</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>205.05658831416525</v>
+      </c>
+      <c r="W83">
+        <v>210.20275539074055</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.1461670765752956</v>
+      </c>
+      <c r="Y83">
+        <v>-4.4681212738405414</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>199</v>
+      </c>
+      <c r="D84">
+        <v>199.35</v>
+      </c>
+      <c r="E84">
+        <v>195.1</v>
+      </c>
+      <c r="F84">
+        <v>195.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>196.65</v>
+      </c>
+      <c r="H84">
+        <v>198.85492467704347</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>204.88967767736455</v>
+      </c>
+      <c r="K84">
+        <v>199.29362247955282</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>27.569988218656388</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>4.25</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>9.411764705882486E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>203.58634395813982</v>
+      </c>
+      <c r="W84">
+        <v>209.11366239883384</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.5273184406940175</v>
+      </c>
+      <c r="Y84">
+        <v>-4.6799607072112366</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="35"/>
+        <v>198.85000000000002</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="36"/>
+        <v>197.75</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="37"/>
+        <v>197.20000000000002</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="38"/>
+        <v>196.70000000000002</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>197.1</v>
+      </c>
+      <c r="D85">
+        <v>198.55</v>
+      </c>
+      <c r="E85">
+        <v>195.55</v>
+      </c>
+      <c r="F85">
+        <v>196.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>196.86666666666667</v>
+      </c>
+      <c r="H85">
+        <v>197.86079567185507</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>203.48086041572799</v>
+      </c>
+      <c r="K85">
+        <v>198.46170637298553</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N85">
+        <v>32.23526727484775</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.31666666666666288</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>202.49613719534909</v>
+      </c>
+      <c r="W85">
+        <v>208.17931703595727</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.6831798406081759</v>
+      </c>
+      <c r="Y85">
+        <v>-4.8806045338906241</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>196</v>
+      </c>
+      <c r="D86">
+        <v>199.3</v>
+      </c>
+      <c r="E86">
+        <v>195.2</v>
+      </c>
+      <c r="F86">
+        <v>197.1</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>197.20000000000002</v>
+      </c>
+      <c r="H86">
+        <v>197.53039783592754</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>202.55178032334399</v>
+      </c>
+      <c r="K86">
+        <v>197.73688273454431</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>35.358002087345213</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>4.1000000000000227</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.46341463414634027</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>201.66596224221846</v>
+      </c>
+      <c r="W86">
+        <v>207.35862688514561</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.6926646429271557</v>
+      </c>
+      <c r="Y86">
+        <v>-5.0430165556979301</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>197</v>
+      </c>
+      <c r="D87">
+        <v>206.95</v>
+      </c>
+      <c r="E87">
+        <v>197</v>
+      </c>
+      <c r="F87">
+        <v>205</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>202.98333333333335</v>
+      </c>
+      <c r="H87">
+        <v>200.25686558463045</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>203.52916247371198</v>
+      </c>
+      <c r="K87">
+        <v>197.57313101575667</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>63.23886243424505</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>9.9499999999999886</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.80402010050251349</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>202.17889112803101</v>
+      </c>
+      <c r="W87">
+        <v>207.18391378254222</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-5.0050226545112082</v>
+      </c>
+      <c r="Y87">
+        <v>-5.0354177754605853</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>205.8</v>
+      </c>
+      <c r="D88">
+        <v>207</v>
+      </c>
+      <c r="E88">
+        <v>200</v>
+      </c>
+      <c r="F88">
+        <v>203.65</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>203.54999999999998</v>
+      </c>
+      <c r="H88">
+        <v>201.90343279231521</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>204.30045970177599</v>
+      </c>
+      <c r="K88">
+        <v>198.1124352344774</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>57.904073884647012</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.6500000000000057</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.52142857142857224</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>202.40521556987238</v>
+      </c>
+      <c r="W88">
+        <v>206.9221423912428</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-4.5169268213704186</v>
+      </c>
+      <c r="Y88">
+        <v>-4.9317195846425523</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>203.55</v>
+      </c>
+      <c r="D89">
+        <v>206.95</v>
+      </c>
+      <c r="E89">
+        <v>203</v>
+      </c>
+      <c r="F89">
+        <v>204.8</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>204.91666666666666</v>
+      </c>
+      <c r="H89">
+        <v>203.41004972949094</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>204.88924643471466</v>
+      </c>
+      <c r="K89">
+        <v>199.19856073792687</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>61.373756280170468</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>3.9499999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.45569620253164977</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>202.77364394373816</v>
+      </c>
+      <c r="W89">
+        <v>206.76494665855816</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-3.9913027148199944</v>
+      </c>
+      <c r="Y89">
+        <v>-4.7436362106780408</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>204</v>
+      </c>
+      <c r="D90">
+        <v>208.6</v>
+      </c>
+      <c r="E90">
+        <v>202.3</v>
+      </c>
+      <c r="F90">
+        <v>206.6</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>205.83333333333334</v>
+      </c>
+      <c r="H90">
+        <v>204.62169153141213</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>205.71385833811141</v>
+      </c>
+      <c r="K90">
+        <v>199.88776946283201</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>66.737725479453658</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999829</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>6.2999999999999829</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.68253968253968167</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>203.36231410623998</v>
+      </c>
+      <c r="W90">
+        <v>206.75272838755384</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-3.3904142813138662</v>
+      </c>
+      <c r="Y90">
+        <v>-4.4729918248052059</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>207.9</v>
+      </c>
+      <c r="D91">
+        <v>210.45</v>
+      </c>
+      <c r="E91">
+        <v>207</v>
+      </c>
+      <c r="F91">
+        <v>207.45</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>208.29999999999998</v>
+      </c>
+      <c r="H91">
+        <v>206.46084576570604</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>206.76633426297553</v>
+      </c>
+      <c r="K91">
+        <v>201.46826513775824</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>69.257702355723495</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.4499999999999886</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.13043478260869279</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>203.99118885912614</v>
+      </c>
+      <c r="W91">
+        <v>206.80437813662394</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-2.8131892774977985</v>
+      </c>
+      <c r="Y91">
+        <v>-4.1410313153437244</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>208.35</v>
+      </c>
+      <c r="D92">
+        <v>221.45</v>
+      </c>
+      <c r="E92">
+        <v>207.95</v>
+      </c>
+      <c r="F92">
+        <v>219</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>216.13333333333333</v>
+      </c>
+      <c r="H92">
+        <v>211.29708954951968</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>210.02937109342542</v>
+      </c>
+      <c r="K92">
+        <v>202.90865066270084</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>86.556745888594179</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>11.050000000000011</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>13.5</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.81851851851851931</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V92">
+        <v>206.30023672695287</v>
+      </c>
+      <c r="W92">
+        <v>207.70775753391106</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-1.407520806958189</v>
+      </c>
+      <c r="Y92">
+        <v>-3.5943292136666174</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>209.5</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>213.10000000000002</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>214.70000000000002</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>216.3</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>221.4</v>
+      </c>
+      <c r="D93">
+        <v>224.5</v>
+      </c>
+      <c r="E93">
+        <v>217.3</v>
+      </c>
+      <c r="F93">
+        <v>220.6</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>220.79999999999998</v>
+      </c>
+      <c r="H93">
+        <v>216.04854477475982</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>213.24506640599756</v>
+      </c>
+      <c r="K93">
+        <v>206.10672829321177</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>87.750342872628693</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.2999999999999829</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>7.1999999999999886</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.45833333333333171</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>208.50020030742166</v>
+      </c>
+      <c r="W93">
+        <v>208.66273845732505</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-0.16253814990338356</v>
+      </c>
+      <c r="Y93">
+        <v>-2.9079710009139705</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>221.1</v>
+      </c>
+      <c r="D94">
+        <v>228.4</v>
+      </c>
+      <c r="E94">
+        <v>219.45</v>
+      </c>
+      <c r="F94">
+        <v>226.15</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>224.66666666666666</v>
+      </c>
+      <c r="H94">
+        <v>220.35760572071325</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>216.612829426887</v>
+      </c>
+      <c r="K94">
+        <v>209.07189978360915</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>91.155344025738913</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6.7000000000000171</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8.9500000000000171</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.74860335195530769</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>211.21555410627988</v>
+      </c>
+      <c r="W94">
+        <v>209.95809116418985</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>1.2574629420900294</v>
+      </c>
+      <c r="Y94">
+        <v>-2.0748842123131706</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>226.1</v>
+      </c>
+      <c r="D95">
+        <v>227.85</v>
+      </c>
+      <c r="E95">
+        <v>216.3</v>
+      </c>
+      <c r="F95">
+        <v>218</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>220.71666666666667</v>
+      </c>
+      <c r="H95">
+        <v>220.53713619368995</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>219.10997844313434</v>
+      </c>
+      <c r="K95">
+        <v>210.67814427614044</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>60.358490890245406</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>11.549999999999983</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.14718614718614642</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>212.25931501300605</v>
+      </c>
+      <c r="W95">
+        <v>210.5537881149906</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>1.7055268980154494</v>
+      </c>
+      <c r="Y95">
+        <v>-1.3188019902474464</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>219.4</v>
+      </c>
+      <c r="D96">
+        <v>222.2</v>
+      </c>
+      <c r="E96">
+        <v>218.1</v>
+      </c>
+      <c r="F96">
+        <v>221.05</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>220.44999999999996</v>
+      </c>
+      <c r="H96">
+        <v>220.49356809684497</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>219.79664990021558</v>
+      </c>
+      <c r="K96">
+        <v>212.32744554810924</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>65.768547166710576</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>2.9500000000000171</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.71951219512195641</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>213.61172808792819</v>
+      </c>
+      <c r="W96">
+        <v>211.33128529165796</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>2.2804427962702221</v>
+      </c>
+      <c r="Y96">
+        <v>-0.59895303294391267</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>219.8</v>
+      </c>
+      <c r="D97">
+        <v>220.55</v>
+      </c>
+      <c r="E97">
+        <v>216.35</v>
+      </c>
+      <c r="F97">
+        <v>217.4</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>218.1</v>
+      </c>
+      <c r="H97">
+        <v>219.29678404842247</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>219.96406103350103</v>
+      </c>
+      <c r="K97">
+        <v>213.2213465374183</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>54.618122481471062</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>4.2000000000000171</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.25000000000000167</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>214.19453915132385</v>
+      </c>
+      <c r="W97">
+        <v>211.78081971449811</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>2.413719436825744</v>
+      </c>
+      <c r="Y97">
+        <v>3.5814610100187716E-3</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>218.95</v>
+      </c>
+      <c r="D98">
+        <v>226.1</v>
+      </c>
+      <c r="E98">
+        <v>218.95</v>
+      </c>
+      <c r="F98">
+        <v>224.6</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>223.21666666666667</v>
+      </c>
+      <c r="H98">
+        <v>221.25672535754455</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>221.32760302605635</v>
+      </c>
+      <c r="K98">
+        <v>214.49438064021422</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>67.996865721377119</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>5.6500000000000057</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>7.1500000000000057</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.79020979020979043</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>215.79537928188941</v>
+      </c>
+      <c r="W98">
+        <v>212.73038862453529</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>3.0649906573541159</v>
+      </c>
+      <c r="Y98">
+        <v>0.61586330027883829</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>225.4</v>
+      </c>
+      <c r="D99">
+        <v>228</v>
+      </c>
+      <c r="E99">
+        <v>221.3</v>
+      </c>
+      <c r="F99">
+        <v>225.7</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>225</v>
+      </c>
+      <c r="H99">
+        <v>223.12836267877228</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>222.81035790915493</v>
+      </c>
+      <c r="K99">
+        <v>216.00674049794441</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>69.702589012226824</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4.3999999999999773</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.65671641791044544</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>217.31916708467566</v>
+      </c>
+      <c r="W99">
+        <v>213.69110057827342</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>3.6280665064022344</v>
+      </c>
+      <c r="Y99">
+        <v>1.2183039415035175</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>227.7</v>
+      </c>
+      <c r="D100">
+        <v>227.7</v>
+      </c>
+      <c r="E100">
+        <v>221.2</v>
+      </c>
+      <c r="F100">
+        <v>222.5</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>223.79999999999998</v>
+      </c>
+      <c r="H100">
+        <v>223.46418133938613</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>223.89694504045383</v>
+      </c>
+      <c r="K100">
+        <v>217.16079816506786</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>58.386511804479355</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>6.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.20000000000000176</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>218.11621830241785</v>
+      </c>
+      <c r="W100">
+        <v>214.34361164654948</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>3.7726066558683726</v>
+      </c>
+      <c r="Y100">
+        <v>1.7291644843764886</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>221.45</v>
+      </c>
+      <c r="D101">
+        <v>223.8</v>
+      </c>
+      <c r="E101">
+        <v>215.75</v>
+      </c>
+      <c r="F101">
+        <v>217.2</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>218.91666666666666</v>
+      </c>
+      <c r="H101">
+        <v>221.19042400302641</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>223.87540169813076</v>
+      </c>
+      <c r="K101">
+        <v>216.84728746171945</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>43.698843911566406</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>1.4499999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>8.0500000000000114</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.18012422360248281</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>217.9752616405074</v>
+      </c>
+      <c r="W101">
+        <v>214.5551959690273</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>3.4200656714801028</v>
+      </c>
+      <c r="Y101">
+        <v>2.0673447217972116</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>215</v>
+      </c>
+      <c r="D102">
+        <v>215.1</v>
+      </c>
+      <c r="E102">
+        <v>208.4</v>
+      </c>
+      <c r="F102">
+        <v>209.5</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>211</v>
+      </c>
+      <c r="H102">
+        <v>216.0952120015132</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>221.92531243187949</v>
+      </c>
+      <c r="K102">
+        <v>214.97011247022624</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>29.995614117445797</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.16417910447761136</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>216.6713752342755</v>
+      </c>
+      <c r="W102">
+        <v>214.18073700835862</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>2.4906382259168822</v>
+      </c>
+      <c r="Y102">
+        <v>2.1520034226211457</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>209.3</v>
+      </c>
+      <c r="D103">
+        <v>211.4</v>
+      </c>
+      <c r="E103">
+        <v>200.95</v>
+      </c>
+      <c r="F103">
+        <v>208.1</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>206.81666666666669</v>
+      </c>
+      <c r="H103">
+        <v>211.45593933408995</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>219.58635411368405</v>
+      </c>
+      <c r="K103">
+        <v>211.85453192128708</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>28.000078149063327</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>7.1500000000000057</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>10.450000000000017</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.68421052631578894</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>215.35270212131005</v>
+      </c>
+      <c r="W103">
+        <v>213.7303120447765</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>1.6223900765335486</v>
+      </c>
+      <c r="Y103">
+        <v>2.0460807534036265</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>208</v>
+      </c>
+      <c r="D104">
+        <v>210</v>
+      </c>
+      <c r="E104">
+        <v>204.3</v>
+      </c>
+      <c r="F104">
+        <v>204.85</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>206.38333333333333</v>
+      </c>
+      <c r="H104">
+        <v>208.91963633371165</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>217.45605319953205</v>
+      </c>
+      <c r="K104">
+        <v>210.17574704988996</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>23.469348272466</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.54999999999998295</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>5.6999999999999886</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>9.6491228070172644E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>213.73690179495466</v>
+      </c>
+      <c r="W104">
+        <v>213.07251115257083</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>0.66439064238383594</v>
+      </c>
+      <c r="Y104">
+        <v>1.7697427311996683</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>209.35000000000002</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>207.8</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>207.15</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>206.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>206.25</v>
+      </c>
+      <c r="D105">
+        <v>209.45</v>
+      </c>
+      <c r="E105">
+        <v>201.9</v>
+      </c>
+      <c r="F105">
+        <v>203.55</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>204.9666666666667</v>
+      </c>
+      <c r="H105">
+        <v>206.94315150018917</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>215.67693026630269</v>
+      </c>
+      <c r="K105">
+        <v>208.33669214991443</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>21.712670250350239</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>7.5499999999999829</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.21854304635761715</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>212.1696861341924</v>
+      </c>
+      <c r="W105">
+        <v>212.36713995608409</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-0.19745382189168481</v>
+      </c>
+      <c r="Y105">
+        <v>1.3763034205813978</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>203.55</v>
+      </c>
+      <c r="D106">
+        <v>205.45</v>
+      </c>
+      <c r="E106">
+        <v>200.05</v>
+      </c>
+      <c r="F106">
+        <v>204.15</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>203.21666666666667</v>
+      </c>
+      <c r="H106">
+        <v>205.07990908342794</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>213.4042790960132</v>
+      </c>
+      <c r="K106">
+        <v>206.495205005489</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>24.953380361232853</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.75925925925926141</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>210.93588826739358</v>
+      </c>
+      <c r="W106">
+        <v>211.75846292230008</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-0.82257465490650361</v>
+      </c>
+      <c r="Y106">
+        <v>0.93652780548381753</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>203.5</v>
+      </c>
+      <c r="D107">
+        <v>208.3</v>
+      </c>
+      <c r="E107">
+        <v>203.5</v>
+      </c>
+      <c r="F107">
+        <v>206.5</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>206.1</v>
+      </c>
+      <c r="H107">
+        <v>205.58995454171395</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>212.26999485245472</v>
+      </c>
+      <c r="K107">
+        <v>205.82960389315812</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>37.599647988953286</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>4.8000000000000114</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.62499999999999856</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>210.25344391856379</v>
+      </c>
+      <c r="W107">
+        <v>211.36894715027785</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.1155032317140581</v>
+      </c>
+      <c r="Y107">
+        <v>0.52612159804424241</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
